--- a/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>GOLQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -741,20 +745,23 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,20 +777,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,20 +825,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -910,8 +933,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,20 +964,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,11 +1006,11 @@
         <v>-700</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,8 +1054,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1038,20 +1072,23 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,20 +1136,23 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,20 +1232,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1212,20 +1264,23 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,8 +1438,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1386,20 +1456,23 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,20 +1520,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,11 +1757,11 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1687,11 +1789,11 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1776,8 +1887,8 @@
       <c r="E49" s="3">
         <v>31500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>31500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1919,11 +2045,11 @@
         <v>31800</v>
       </c>
       <c r="E54" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F54" s="3">
         <v>31700</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,13 +2095,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2035,7 +2172,7 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,11 +2201,11 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2235,11 +2393,11 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2555,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E72" s="3">
         <v>29400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2512,7 +2698,7 @@
         <v>31100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,54 +2747,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,20 +3022,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,20 +3164,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3106,8 +3352,8 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,17 +3402,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GOLQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -748,23 +751,26 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,14 +798,14 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,23 +838,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +906,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>19700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,13 +941,16 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -936,8 +958,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -954,8 +976,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,23 +990,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -997,23 +1023,26 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-700</v>
+        <v>-21500</v>
       </c>
       <c r="E18" s="3">
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1058,11 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1057,8 +1090,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1075,23 +1108,26 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,23 +1178,26 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1213,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,23 +1283,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1267,23 +1318,26 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1353,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1441,8 +1510,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1459,23 +1528,26 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1563,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,23 +1598,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1555,45 +1633,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1738,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,23 +1843,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -1780,23 +1878,26 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -1812,8 +1913,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,13 +1983,16 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31500</v>
+        <v>11800</v>
       </c>
       <c r="E49" s="3">
         <v>31500</v>
@@ -1890,8 +2000,8 @@
       <c r="F49" s="3">
         <v>31500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>31500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2158,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31800</v>
+        <v>11800</v>
       </c>
       <c r="E54" s="3">
         <v>31800</v>
       </c>
       <c r="F54" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G54" s="3">
         <v>31700</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,17 +2225,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2258,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,13 +2293,16 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -2175,7 +2311,7 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2192,23 +2328,26 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
@@ -2224,8 +2363,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,26 +2728,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>28700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,13 +2868,16 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31100</v>
+        <v>9700</v>
       </c>
       <c r="E76" s="3">
         <v>31100</v>
@@ -2701,7 +2886,7 @@
         <v>31100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,60 +2938,66 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +3013,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,23 +3238,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3057,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,23 +3393,26 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,19 +3583,22 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3373,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,20 +3653,23 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3435,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>GOLQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,91 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -754,29 +762,35 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -789,29 +803,35 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -824,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,29 +865,31 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,20 +943,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>19700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -935,37 +975,43 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,29 +1043,31 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>21700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1026,29 +1080,35 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1061,8 +1121,14 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,13 +1142,15 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1093,11 +1161,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1111,29 +1179,35 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1146,8 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,29 +1261,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1216,8 +1302,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,29 +1384,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1321,29 +1425,35 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,13 +1630,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1513,11 +1653,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1531,29 +1671,35 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,29 +1753,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1636,48 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1878,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1715,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1741,8 +1915,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1997,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,29 +2038,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -1881,8 +2079,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1890,20 +2094,20 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -1916,8 +2120,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2202,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1995,19 +2217,19 @@
         <v>11800</v>
       </c>
       <c r="E49" s="3">
-        <v>31500</v>
+        <v>11800</v>
       </c>
       <c r="F49" s="3">
-        <v>31500</v>
+        <v>11800</v>
       </c>
       <c r="G49" s="3">
         <v>31500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>31500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>31500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2407,14 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2170,20 +2422,20 @@
         <v>11800</v>
       </c>
       <c r="E54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G54" s="3">
         <v>31800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>31800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>31700</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2196,8 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,23 +2486,25 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2261,8 +2523,14 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,28 +2564,34 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2331,29 +2605,35 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -2366,8 +2646,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2851,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -2576,8 +2892,14 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,32 +3073,38 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>28700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>29400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>30000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
@@ -2766,8 +3114,14 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,28 +3237,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F76" s="3">
         <v>9700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>31100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>31100</v>
       </c>
       <c r="G76" s="3">
         <v>31100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,69 +3319,81 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3016,8 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,29 +3669,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3768,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,29 +3850,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3431,8 +3891,14 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,28 +4072,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3621,8 +4113,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,26 +4154,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3689,6 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GOLQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,23 +740,23 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -768,32 +772,35 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -827,14 +837,14 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,32 +880,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,23 +966,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>19700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -981,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1013,8 +1036,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,32 +1071,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,23 +1125,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1167,8 +1201,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1199,18 +1236,18 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,32 +1307,35 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,32 +1439,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1431,32 +1483,35 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1659,8 +1729,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1677,32 +1747,35 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,32 +1835,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,11 +1976,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2055,21 +2154,21 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2223,7 +2334,7 @@
         <v>11800</v>
       </c>
       <c r="G49" s="3">
-        <v>31500</v>
+        <v>11800</v>
       </c>
       <c r="H49" s="3">
         <v>31500</v>
@@ -2231,8 +2342,8 @@
       <c r="I49" s="3">
         <v>31500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>31500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2422,23 +2548,23 @@
         <v>11800</v>
       </c>
       <c r="E54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F54" s="3">
         <v>11900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>31800</v>
       </c>
       <c r="H54" s="3">
         <v>31800</v>
       </c>
       <c r="I54" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J54" s="3">
         <v>31700</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,17 +2628,17 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,13 +2716,13 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -2594,7 +2731,7 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2866,23 +3024,23 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3255,10 +3441,10 @@
         <v>10200</v>
       </c>
       <c r="F76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G76" s="3">
         <v>9700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>31100</v>
       </c>
       <c r="H76" s="3">
         <v>31100</v>
@@ -3267,7 +3453,7 @@
         <v>31100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,78 +3514,84 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,32 +3889,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,21 +4097,21 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,20 +4321,23 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4101,8 +4347,8 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,29 +4409,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
